--- a/culture_collections.xlsx
+++ b/culture_collections.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="212">
   <si>
     <t xml:space="preserve">collection_acronym</t>
   </si>
@@ -52,12 +52,6 @@
     <t xml:space="preserve">collection_citation</t>
   </si>
   <si>
-    <t xml:space="preserve">added</t>
-  </si>
-  <si>
-    <t xml:space="preserve">problem</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALGOBANK</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t xml:space="preserve">ian.jameson@csiro.au</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">BCCM/DCG</t>
   </si>
   <si>
@@ -190,9 +181,6 @@
     <t xml:space="preserve">ccap@sams.ac.uk</t>
   </si>
   <si>
-    <t xml:space="preserve">coordinates are missing</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCBA</t>
   </si>
   <si>
@@ -257,9 +245,6 @@
   </si>
   <si>
     <t xml:space="preserve">ruso@cim.irb.hr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no taxonomy</t>
   </si>
   <si>
     <t xml:space="preserve">CPCC </t>
@@ -683,7 +668,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -707,29 +692,22 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -739,20 +717,14 @@
       <sz val="10"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
+      <color rgb="FF0563C1"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -808,64 +780,56 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -883,7 +847,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
+          <fgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -971,1039 +935,1553 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K999"/>
+  <dimension ref="A1:AH999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I46" activeCellId="0" sqref="I46"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G52" activeCellId="0" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="70.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="22.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="12" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="70.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="33.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="34.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="10" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="34" min="29" style="3" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+    </row>
+    <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+    </row>
+    <row r="3" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-    </row>
-    <row r="3" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+    </row>
+    <row r="6" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
-      <c r="K5" s="0"/>
-    </row>
-    <row r="6" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="F7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="G9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="B11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7" t="s">
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+    </row>
+    <row r="14" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="G16" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G18" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B19" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="E19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="F19" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="G19" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="G20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G22" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+    </row>
+    <row r="23" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F24" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="G24" s="4"/>
+      <c r="H24" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="5" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="I25" s="4"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+    </row>
+    <row r="26" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="C26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="G26" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="H26" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="I26" s="4"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+    </row>
+    <row r="27" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="F27" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="G27" s="4"/>
+      <c r="H27" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="I27" s="4"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+    </row>
+    <row r="28" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="5" t="s">
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="I28" s="4"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="9" t="s">
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="9" t="s">
+      <c r="G30" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="30" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+    </row>
+    <row r="31" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="D31" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="G31" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="B32" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="C32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0" t="s">
+      <c r="F32" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G32" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="H32" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="I32" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2" t="s">
+    </row>
+    <row r="33" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="F33" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="G33" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+    </row>
+    <row r="34" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G34" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+    </row>
+    <row r="35" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F35" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G35" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="H35" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+    </row>
+    <row r="36" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="C36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F36" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G36" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
+      <c r="H36" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="I36" s="4"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+    </row>
+    <row r="37" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="B37" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="C37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H37" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+    </row>
+    <row r="38" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
+      <c r="B38" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="C38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="E38" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="F38" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
+      <c r="G38" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="H38" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/culture_collections.xlsx
+++ b/culture_collections.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$H$29</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,11 +23,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="225">
   <si>
     <t xml:space="preserve">collection_acronym</t>
   </si>
   <si>
+    <t xml:space="preserve">WDCM</t>
+  </si>
+  <si>
     <t xml:space="preserve">collection_name</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t xml:space="preserve">collection_web_site</t>
   </si>
   <si>
+    <t xml:space="preserve">collection_web_site_full</t>
+  </si>
+  <si>
     <t xml:space="preserve">collection_contact</t>
   </si>
   <si>
@@ -52,6 +58,12 @@
     <t xml:space="preserve">collection_citation</t>
   </si>
   <si>
+    <t xml:space="preserve">added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">problem</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALGOBANK</t>
   </si>
   <si>
@@ -94,6 +106,9 @@
     <t xml:space="preserve">ian.jameson@csiro.au</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">BCCM/DCG</t>
   </si>
   <si>
@@ -136,6 +151,9 @@
     <t xml:space="preserve">Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">https://bit.ly/3IdfDA6</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.io.usp.br/index.php/infraestrutura-io-2/banco-de-microorganismos.html</t>
   </si>
   <si>
@@ -181,6 +199,9 @@
     <t xml:space="preserve">ccap@sams.ac.uk</t>
   </si>
   <si>
+    <t xml:space="preserve">coordinates are missing</t>
+  </si>
+  <si>
     <t xml:space="preserve">CCBA</t>
   </si>
   <si>
@@ -247,12 +268,18 @@
     <t xml:space="preserve">ruso@cim.irb.hr</t>
   </si>
   <si>
+    <t xml:space="preserve">no taxonomy</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPCC </t>
   </si>
   <si>
     <t xml:space="preserve">Canadian Phycological Culture Centre</t>
   </si>
   <si>
+    <t xml:space="preserve">https://bit.ly/3IgecRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://uwaterloo.ca/canadian-phycological-culture-centre/</t>
   </si>
   <si>
@@ -295,7 +322,7 @@
     <t xml:space="preserve">FINMARI CC</t>
   </si>
   <si>
-    <t xml:space="preserve">FINMARI Culture Collection/SYKE Marine Research Centre and Tvärminne Zoological Station</t>
+    <t xml:space="preserve">FINMARI Culture Collection</t>
   </si>
   <si>
     <t xml:space="preserve">Finland</t>
@@ -343,6 +370,9 @@
     <t xml:space="preserve">Russia</t>
   </si>
   <si>
+    <t xml:space="preserve">https://bit.ly/42T57Ws</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://marbank.dvo.ru/index.php/en/marine-genetic-resourses</t>
   </si>
   <si>
@@ -367,7 +397,7 @@
     <t xml:space="preserve">Roksana Majewska</t>
   </si>
   <si>
-    <t xml:space="preserve">proximina@o2.pl; roksana.majewska@nwu.ac.za </t>
+    <t xml:space="preserve">roksana.majewska@nwu.ac.za</t>
   </si>
   <si>
     <t xml:space="preserve">MNHN-ALCP</t>
@@ -376,7 +406,10 @@
     <t xml:space="preserve">Collection du Muséum d'Histoire Naturelle, Paris</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mnhn.fr/en/collections/collection-groups/biological-resources-living-and-cryopreserved-cells/microalgae-and-cyanobacteria</t>
+    <t xml:space="preserve">https://bit.ly/3o7jec0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mnhn.fr/en/cyanobacteria-and-eukaryotic-microalgae-collection</t>
   </si>
   <si>
     <t xml:space="preserve">Sahima Hamlaoui</t>
@@ -403,13 +436,13 @@
     <t xml:space="preserve">NBRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Culture Collection Division,  Biological Resource Center,  National Institute of Technology and Evaluation</t>
+    <t xml:space="preserve">Culture Collection Division,  National Institute of Technology and Evaluation</t>
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.nite.go.jp/nbrc/catalogue/catalogueAdvSearch</t>
+    <t xml:space="preserve">https://www.nite.go.jp/nbrc/catalogue/</t>
   </si>
   <si>
     <t xml:space="preserve">NCMA</t>
@@ -427,13 +460,16 @@
     <t xml:space="preserve">Mike Lomas</t>
   </si>
   <si>
+    <t xml:space="preserve">ncma@bigelow.org </t>
+  </si>
+  <si>
     <t xml:space="preserve">mlomas@bigelow.org</t>
   </si>
   <si>
     <t xml:space="preserve">MCC</t>
   </si>
   <si>
-    <t xml:space="preserve">Microbial Culture Collection - National Institute for Environmental Studies Collection</t>
+    <t xml:space="preserve">National Institute for Environmental Studies Collection</t>
   </si>
   <si>
     <t xml:space="preserve">https://mcc.nies.go.jp/</t>
@@ -515,6 +551,9 @@
   </si>
   <si>
     <t xml:space="preserve">Szczecin Diatom Culture Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/432Rl3X</t>
   </si>
   <si>
     <t xml:space="preserve">http://geocentrum.usz.edu.pl/en/szczecin-diatom-culture-collection-szcz/</t>
@@ -668,7 +707,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -692,22 +731,29 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -717,14 +763,20 @@
       <sz val="10"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
       <sz val="10"/>
-      <color rgb="FF0563C1"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -780,20 +832,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -805,31 +849,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -843,7 +911,14 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -863,6 +938,13 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0563C1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -939,1549 +1021,1201 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH999"/>
+  <dimension ref="A1:M999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G52" activeCellId="0" sqref="G52"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="70.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="33.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="34.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="10" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="34" min="29" style="3" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="70.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="70.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="33.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="34.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="22.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="14" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-    </row>
-    <row r="3" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1039</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-    </row>
-    <row r="6" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>522</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>914</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>1042</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>605</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>274</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="F14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-    </row>
-    <row r="14" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
+      <c r="F18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>11</v>
+      <c r="A20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-    </row>
-    <row r="23" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>825</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>591</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-    </row>
-    <row r="26" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>11</v>
+        <v>149</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>498</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>829</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="8" t="n">
+        <v>606</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
-    </row>
-    <row r="27" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
-    </row>
-    <row r="28" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-    </row>
-    <row r="31" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="9" t="n">
+        <v>1096</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-    </row>
-    <row r="34" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-    </row>
-    <row r="35" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="11"/>
-      <c r="AG35" s="11"/>
-      <c r="AH35" s="11"/>
-    </row>
-    <row r="36" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="H36" s="10" t="s">
+      <c r="F36" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="11"/>
-    </row>
-    <row r="37" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="11"/>
-    </row>
-    <row r="38" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="11"/>
+      <c r="F37" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" s="15" t="n">
+        <v>905</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3445,43 +3179,60 @@
     <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:H29"/>
+  <autoFilter ref="A1:J38"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="benoit.veron@unicaen.fr, juliette.fauchot@unicaen.fr"/>
-    <hyperlink ref="G3" r:id="rId2" display="ian.jameson@csiro.au"/>
-    <hyperlink ref="H4" r:id="rId3" display="bccm.dcg@ugent.be"/>
-    <hyperlink ref="G6" r:id="rId4" display="fsalcorr@usp.br"/>
-    <hyperlink ref="H7" r:id="rId5" display="ccac@uni-due.de "/>
-    <hyperlink ref="E8" r:id="rId6" display="https://www.ccap.ac.uk/"/>
-    <hyperlink ref="H8" r:id="rId7" display="ccap@sams.ac.uk"/>
-    <hyperlink ref="H10" r:id="rId8" display="cccm@mail.ubc.ca"/>
-    <hyperlink ref="G12" r:id="rId9" display="ruso@cim.irb.hr"/>
-    <hyperlink ref="E14" r:id="rId10" display="https://www.dsmz.de/"/>
-    <hyperlink ref="E15" r:id="rId11" display="http://algae.ihb.ac.cn/English/"/>
-    <hyperlink ref="H15" r:id="rId12" display="fachb@ihb.ac.cn"/>
-    <hyperlink ref="G16" r:id="rId13" display="heidi.hallfors@syke.fi"/>
-    <hyperlink ref="G17" r:id="rId14" display="Rosa.Trobajo@irta.cat"/>
-    <hyperlink ref="G18" r:id="rId15" display="angwar@mba.ac.uk"/>
-    <hyperlink ref="G19" r:id="rId16" display="naizdaicher@mail.ru "/>
-    <hyperlink ref="E20" r:id="rId17" display="http://ipt.sanbi.org.za/iptsanbi/resource?r=diatom"/>
-    <hyperlink ref="G20" r:id="rId18" display="proximina@o2.pl; roksana.majewska@nwu.ac.za "/>
-    <hyperlink ref="H24" r:id="rId19" display="mlomas@bigelow.org"/>
-    <hyperlink ref="H25" r:id="rId20" display="mcc@nies.go.jp"/>
-    <hyperlink ref="G26" r:id="rId21" display="bente.edvardsen@bio.uio.no"/>
-    <hyperlink ref="H26" r:id="rId22" display="norcca@niva.no "/>
-    <hyperlink ref="H27" r:id="rId23" display="rcc@sb-roscoff.fr"/>
-    <hyperlink ref="H28" r:id="rId24" display="epsag@uni-goettingen.de"/>
-    <hyperlink ref="H29" r:id="rId25" display="adriana.lopes@ntu.edu.sg"/>
-    <hyperlink ref="G31" r:id="rId26" display="sergio.balzano@szn.it"/>
-    <hyperlink ref="G32" r:id="rId27" display="frederic.rimet@inrae.fr"/>
-    <hyperlink ref="H32" r:id="rId28" display="tcc-carrtel@inra.fr "/>
-    <hyperlink ref="I32" r:id="rId29" display="Rimet, Frédéric; Chardon, Cécile; Lainé, Leslie; Bouchez, Agnès; Domaizon, Isabelle; Guillard, Jean; Jacquet, Stéphan, 2018, &quot;Thonon Culture Collection -TCC- a freshwater microalgae collection&quot;, https://doi.org/10.15454/UQEMVW, Portail Data Inra, V1"/>
-    <hyperlink ref="G33" r:id="rId30" display="dnobles@austin.utexas.edu"/>
-    <hyperlink ref="G35" r:id="rId31" display="desouzac@uncw.edu"/>
-    <hyperlink ref="H35" r:id="rId32" display="desouzac@uncw.edu"/>
-    <hyperlink ref="G36" r:id="rId33" display="gabpinto@unina.it"/>
-    <hyperlink ref="H36" r:id="rId34" display="anpollio@unina.it"/>
-    <hyperlink ref="G38" r:id="rId35" display="Josef.Juran@ibot.cas.cz"/>
+    <hyperlink ref="I2" r:id="rId1" display="benoit.veron@unicaen.fr, juliette.fauchot@unicaen.fr"/>
+    <hyperlink ref="I3" r:id="rId2" display="ian.jameson@csiro.au"/>
+    <hyperlink ref="I4" r:id="rId3" display="bccm.dcg@ugent.be"/>
+    <hyperlink ref="J4" r:id="rId4" display="bccm.dcg@ugent.be"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://bit.ly/3IdfDA6"/>
+    <hyperlink ref="G6" r:id="rId6" display="https://www.io.usp.br/index.php/infraestrutura-io-2/banco-de-microorganismos.html"/>
+    <hyperlink ref="I6" r:id="rId7" display="fsalcorr@usp.br"/>
+    <hyperlink ref="J7" r:id="rId8" display="ccac@uni-due.de "/>
+    <hyperlink ref="F8" r:id="rId9" display="https://www.ccap.ac.uk/"/>
+    <hyperlink ref="G8" r:id="rId10" display="https://www.ccap.ac.uk/"/>
+    <hyperlink ref="I8" r:id="rId11" display="ccap@sams.ac.uk"/>
+    <hyperlink ref="J8" r:id="rId12" display="ccap@sams.ac.uk"/>
+    <hyperlink ref="J10" r:id="rId13" display="cccm@mail.ubc.ca"/>
+    <hyperlink ref="I12" r:id="rId14" display="ruso@cim.irb.hr"/>
+    <hyperlink ref="F13" r:id="rId15" display="https://bit.ly/3IgecRA"/>
+    <hyperlink ref="F14" r:id="rId16" display="https://www.dsmz.de/"/>
+    <hyperlink ref="G14" r:id="rId17" display="https://www.dsmz.de/"/>
+    <hyperlink ref="F15" r:id="rId18" display="http://algae.ihb.ac.cn/English/"/>
+    <hyperlink ref="G15" r:id="rId19" display="http://algae.ihb.ac.cn/English/"/>
+    <hyperlink ref="J15" r:id="rId20" display="fachb@ihb.ac.cn"/>
+    <hyperlink ref="I16" r:id="rId21" display="heidi.hallfors@syke.fi"/>
+    <hyperlink ref="I17" r:id="rId22" display="Rosa.Trobajo@irta.cat"/>
+    <hyperlink ref="I18" r:id="rId23" display="angwar@mba.ac.uk"/>
+    <hyperlink ref="F19" r:id="rId24" display="https://bit.ly/42T57Ws"/>
+    <hyperlink ref="I19" r:id="rId25" display="naizdaicher@mail.ru "/>
+    <hyperlink ref="F20" r:id="rId26" display="http://ipt.sanbi.org.za/iptsanbi/resource?r=diatom"/>
+    <hyperlink ref="G20" r:id="rId27" display="http://ipt.sanbi.org.za/iptsanbi/resource?r=diatom"/>
+    <hyperlink ref="I20" r:id="rId28" display="roksana.majewska@nwu.ac.za"/>
+    <hyperlink ref="F21" r:id="rId29" display="https://bit.ly/3o7jec0"/>
+    <hyperlink ref="G21" r:id="rId30" display="https://www.mnhn.fr/en/cyanobacteria-and-eukaryotic-microalgae-collection"/>
+    <hyperlink ref="F23" r:id="rId31" display="https://www.nite.go.jp/nbrc/catalogue/"/>
+    <hyperlink ref="G23" r:id="rId32" display="https://www.nite.go.jp/nbrc/catalogue/"/>
+    <hyperlink ref="J24" r:id="rId33" display="mlomas@bigelow.org"/>
+    <hyperlink ref="I25" r:id="rId34" display="mcc@nies.go.jp"/>
+    <hyperlink ref="J25" r:id="rId35" display="mcc@nies.go.jp"/>
+    <hyperlink ref="I26" r:id="rId36" display="bente.edvardsen@bio.uio.no"/>
+    <hyperlink ref="J26" r:id="rId37" display="norcca@niva.no "/>
+    <hyperlink ref="I27" r:id="rId38" display="rcc@sb-roscoff.fr"/>
+    <hyperlink ref="J27" r:id="rId39" display="rcc@sb-roscoff.fr"/>
+    <hyperlink ref="J28" r:id="rId40" display="epsag@uni-goettingen.de"/>
+    <hyperlink ref="J29" r:id="rId41" display="adriana.lopes@ntu.edu.sg"/>
+    <hyperlink ref="F30" r:id="rId42" display="https://bit.ly/432Rl3X"/>
+    <hyperlink ref="I31" r:id="rId43" display="sergio.balzano@szn.it"/>
+    <hyperlink ref="I32" r:id="rId44" display="frederic.rimet@inrae.fr"/>
+    <hyperlink ref="J32" r:id="rId45" display="tcc-carrtel@inra.fr "/>
+    <hyperlink ref="K32" r:id="rId46" display="Rimet, Frédéric; Chardon, Cécile; Lainé, Leslie; Bouchez, Agnès; Domaizon, Isabelle; Guillard, Jean; Jacquet, Stéphan, 2018, &quot;Thonon Culture Collection -TCC- a freshwater microalgae collection&quot;, https://doi.org/10.15454/UQEMVW, Portail Data Inra, V1"/>
+    <hyperlink ref="I33" r:id="rId47" display="dnobles@austin.utexas.edu"/>
+    <hyperlink ref="I35" r:id="rId48" display="desouzac@uncw.edu"/>
+    <hyperlink ref="J35" r:id="rId49" display="desouzac@uncw.edu"/>
+    <hyperlink ref="I36" r:id="rId50" display="gabpinto@unina.it"/>
+    <hyperlink ref="J36" r:id="rId51" display="anpollio@unina.it"/>
+    <hyperlink ref="I38" r:id="rId52" display="Josef.Juran@ibot.cas.cz"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
@@ -3490,6 +3241,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId36"/>
+  <drawing r:id="rId53"/>
 </worksheet>
 </file>